--- a/biology/Zoologie/Battus_philenor/Battus_philenor.xlsx
+++ b/biology/Zoologie/Battus_philenor/Battus_philenor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus philenor est une espèce de lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Battus.
 </t>
@@ -511,89 +523,91 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a été nommé Battus philenor par Carl von Linné en 1771.
-Synonyme : Papilio philenor Linnaeus, 1771[1].
-Noms vernaculaires
-Battus philenor se nomme Pipevine Swallowtail ou Blue Swallowtail en anglais[1].
-Sous-espèces
-Ce papillon est représenté par cinq sous-espèces :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Battus philenor par Carl von Linné en 1771.
+Synonyme : Papilio philenor Linnaeus, 1771.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Battus_philenor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus philenor se nomme Pipevine Swallowtail ou Blue Swallowtail en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Battus_philenor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce papillon est représenté par cinq sous-espèces :
 Battus philenor philenor de l'Ontario, la Floride, le Nebraska, le Texas, l'Arizona, la Californie, l'Oregon, au Mexique et au Guatemala ;
 Battus philenor acauda (Oberthür, 1879) au Nouveau-Mexique et dans le sud-est du Mexique ;
 Battus philenor hirsuta (Skinner, 1908); en Californie ;
 Battus philenor insularis Vázquez, 1957; au Nouveau-Mexique ;
-Battus philenor orsua (Godman &amp; Salvin, 1889)[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Battus_philenor</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus philenor est un moyennement grand papillon (son envergure varie de 58 à 130 mm) de couleur noire à reflets soit bleu métallisé soit vert métallisé. Il est de forme vaguement triangulaire et chaque aile postérieure possède une longue queue. Il présente une ligne submarginale de taches blanches
-Le revers des antérieures est semblable, celui des postérieures est orné d'une rangée de sept grosses taches rondes de couleur orange[2],[3].
-Chenille et chrysalide
-Les chenilles sont noires ornées de tubercules noirs et rouges à leur dernier stade[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Battus_philenor</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un migrateur occasionnel au Canada[2].
-Période de vol et hivernation
-Les imagos volent en deux à trois générations.
-Il hiverne au stade de chrysalide[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des aristoloches : Aristolochia macrophylla, Aristolochia serpentaria, Aristolochia californica et Aristolochia longiflora[1].
-</t>
+Battus philenor orsua (Godman &amp; Salvin, 1889).</t>
         </is>
       </c>
     </row>
@@ -618,16 +632,267 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus philenor est un moyennement grand papillon (son envergure varie de 58 à 130 mm) de couleur noire à reflets soit bleu métallisé soit vert métallisé. Il est de forme vaguement triangulaire et chaque aile postérieure possède une longue queue. Il présente une ligne submarginale de taches blanches
+Le revers des antérieures est semblable, celui des postérieures est orné d'une rangée de sept grosses taches rondes de couleur orange,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Battus_philenor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont noires ornées de tubercules noirs et rouges à leur dernier stade.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Battus_philenor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur occasionnel au Canada.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Battus_philenor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les imagos volent en deux à trois générations.
+Il hiverne au stade de chrysalide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Battus_philenor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des aristoloches : Aristolochia macrophylla, Aristolochia serpentaria, Aristolochia californica et Aristolochia longiflora.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Battus_philenor</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Amérique du Nord de l'Ontario dans le sud du Canada au Mexique et au Guatemala[1]. Il est présent aux USA dans tout le sud et l'est mais absent des états du nord-ouest et du nord limitrophes du Canada[3].
-Biotope
-Il affectionne les lieux ouverts, champs et jardins.
-Protection
-Pas de statut de protection particulier sauf dans le nord de son aire de résidence où il est recommandé de conserver ses plantes hôtes[3].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Amérique du Nord de l'Ontario dans le sud du Canada au Mexique et au Guatemala. Il est présent aux USA dans tout le sud et l'est mais absent des états du nord-ouest et du nord limitrophes du Canada.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Battus_philenor</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les lieux ouverts, champs et jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Battus_philenor</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_philenor</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier sauf dans le nord de son aire de résidence où il est recommandé de conserver ses plantes hôtes.
 </t>
         </is>
       </c>
